--- a/Aircraft Performance Charts.xlsx
+++ b/Aircraft Performance Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msfs addons\msfs_g36_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568CD626-396F-4CD9-BFDC-234636E46DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0B317-AFC4-4B13-810A-E08F17C40C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37860" yWindow="30" windowWidth="26715" windowHeight="20715" activeTab="1" xr2:uid="{F3E951CC-1C72-499B-8BB0-3A0EA6D7948F}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F3E951CC-1C72-499B-8BB0-3A0EA6D7948F}"/>
   </bookViews>
   <sheets>
     <sheet name="20°C Rich Of Peak 25-25" sheetId="2" r:id="rId1"/>
@@ -1081,6 +1081,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,15 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3297,7 +3297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,52 +3324,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="170"/>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="173"/>
+      <c r="B1" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="159" t="s">
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="157" t="s">
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="161" t="s">
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="162"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="165"/>
     </row>
     <row r="2" spans="1:32" s="51" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3462,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="169" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="81">
@@ -3587,7 +3587,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="61">
         <v>15000</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="61">
         <v>14000</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="61">
         <v>13000</v>
       </c>
@@ -3930,7 +3930,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="61">
         <v>12000</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="61">
         <v>11000</v>
       </c>
@@ -4163,7 +4163,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="61">
         <v>10000</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="166"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="61">
         <v>9000</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="61">
         <v>8000</v>
       </c>
@@ -4519,7 +4519,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="166"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="61">
         <v>7000</v>
       </c>
@@ -4629,7 +4629,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="166"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="61">
         <v>6000</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>17.2</v>
       </c>
       <c r="J13" s="62">
-        <f t="shared" ref="J13:O22" si="10">AVERAGE(J30,J48,J66,J83,J100)</f>
+        <f t="shared" ref="J13:O19" si="10">AVERAGE(J30,J48,J66,J83,J100)</f>
         <v>23.67</v>
       </c>
       <c r="K13" s="63">
@@ -4695,7 +4695,7 @@
         <v>-2.3000000000000007</v>
       </c>
       <c r="S13" s="62">
-        <f t="shared" ref="S13:X22" si="11">AVERAGE(S30,S48,S66,S83,S100)</f>
+        <f t="shared" ref="S13:X19" si="11">AVERAGE(S30,S48,S66,S83,S100)</f>
         <v>23.67</v>
       </c>
       <c r="T13" s="63">
@@ -4731,7 +4731,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="62" t="e">
-        <f t="shared" ref="AB13:AF22" si="12">AVERAGE(AB30,AB48,AB66,AB83,AB100)</f>
+        <f t="shared" ref="AB13:AF19" si="12">AVERAGE(AB30,AB48,AB66,AB83,AB100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="63" t="e">
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="61">
         <v>5000</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="61">
         <v>4500</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="61">
         <v>4000</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="61">
         <v>3000</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="166"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="61">
         <v>2000</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="167"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="67">
         <v>1000</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="157" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="82">
@@ -5530,7 +5530,7 @@
       <c r="AF20" s="34"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="83">
         <v>15000</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="83">
         <v>14000</v>
       </c>
@@ -5688,7 +5688,7 @@
       <c r="AF22" s="35"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="83">
         <v>13000</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="83">
         <v>12000</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="83">
         <v>11000</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="173"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="83">
         <v>10000</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="83">
         <v>9000</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="83">
         <v>8000</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="83">
         <v>7000</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="83">
         <v>6000</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="AF30" s="35"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="83">
         <v>5000</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="AF31" s="35"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="84">
         <v>4500</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="AF32" s="96"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="158"/>
       <c r="B33" s="83">
         <v>4000</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="158"/>
       <c r="B34" s="83">
         <v>3000</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="AF34" s="35"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="158"/>
       <c r="B35" s="83">
         <v>2000</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="AF35" s="35"/>
     </row>
     <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="174"/>
+      <c r="A36" s="159"/>
       <c r="B36" s="85">
         <v>1000</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="AF37" s="107"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="157" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="19">
@@ -6878,7 +6878,7 @@
       <c r="AF38" s="34"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
+      <c r="A39" s="158"/>
       <c r="B39" s="25">
         <v>15000</v>
       </c>
@@ -6916,7 +6916,7 @@
       <c r="AF39" s="35"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
+      <c r="A40" s="158"/>
       <c r="B40" s="25">
         <v>14000</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="AF40" s="35"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="173"/>
+      <c r="A41" s="158"/>
       <c r="B41" s="25">
         <v>13000</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="AF41" s="35"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
+      <c r="A42" s="158"/>
       <c r="B42" s="25">
         <v>12000</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="AF42" s="35"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="25">
         <v>11000</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="AF43" s="35"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="25">
         <v>10000</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="AF44" s="35"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="173"/>
+      <c r="A45" s="158"/>
       <c r="B45" s="25">
         <v>9000</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="AF45" s="35"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="173"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="25">
         <v>8000</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="AF46" s="35"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="25">
         <v>7000</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="AF47" s="35"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="173"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="25">
         <v>6000</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="AF48" s="35"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="173"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="25">
         <v>5000</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="AF49" s="35"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="173"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="27">
         <v>4500</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="AF50" s="96"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="173"/>
+      <c r="A51" s="158"/>
       <c r="B51" s="25">
         <v>4000</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="AF51" s="35"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="173"/>
+      <c r="A52" s="158"/>
       <c r="B52" s="25">
         <v>3000</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="AF52" s="35"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="173"/>
+      <c r="A53" s="158"/>
       <c r="B53" s="25">
         <v>2000</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="AF53" s="35"/>
     </row>
     <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="174"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="16">
         <v>1000</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="AF55" s="107"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="157" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="19">
@@ -7584,7 +7584,7 @@
       <c r="AF56" s="34"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="173"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="25">
         <v>15000</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="AF57" s="35"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="173"/>
+      <c r="A58" s="158"/>
       <c r="B58" s="25">
         <v>14000</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="AF58" s="35"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="173"/>
+      <c r="A59" s="158"/>
       <c r="B59" s="25">
         <v>13000</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="AF59" s="35"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="173"/>
+      <c r="A60" s="158"/>
       <c r="B60" s="25">
         <v>12000</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="AF60" s="35"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="173"/>
+      <c r="A61" s="158"/>
       <c r="B61" s="25">
         <v>11000</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="AF61" s="35"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="173"/>
+      <c r="A62" s="158"/>
       <c r="B62" s="25">
         <v>10000</v>
       </c>
@@ -7800,7 +7800,7 @@
       <c r="AF62" s="35"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="173"/>
+      <c r="A63" s="158"/>
       <c r="B63" s="25">
         <v>9000</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="AF63" s="35"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="173"/>
+      <c r="A64" s="158"/>
       <c r="B64" s="25">
         <v>8000</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="AF64" s="35"/>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="173"/>
+      <c r="A65" s="158"/>
       <c r="B65" s="25">
         <v>7000</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="AF65" s="35"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="173"/>
+      <c r="A66" s="158"/>
       <c r="B66" s="25">
         <v>6000</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="AF66" s="35"/>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="173"/>
+      <c r="A67" s="158"/>
       <c r="B67" s="25">
         <v>5000</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="AF67" s="35"/>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="173"/>
+      <c r="A68" s="158"/>
       <c r="B68" s="27">
         <v>4800</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="AF68" s="35"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69" s="173"/>
+      <c r="A69" s="158"/>
       <c r="B69" s="25">
         <v>4000</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="AF69" s="35"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70" s="173"/>
+      <c r="A70" s="158"/>
       <c r="B70" s="25">
         <v>3000</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="AF70" s="35"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="173"/>
+      <c r="A71" s="158"/>
       <c r="B71" s="25">
         <v>2000</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="AF71" s="35"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="174"/>
+      <c r="A72" s="159"/>
       <c r="B72" s="16">
         <v>1000</v>
       </c>
@@ -8160,7 +8160,7 @@
       <c r="AF72" s="37"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="172" t="s">
+      <c r="A73" s="157" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="19">
@@ -8198,7 +8198,7 @@
       <c r="AF73" s="34"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74" s="173"/>
+      <c r="A74" s="158"/>
       <c r="B74" s="25">
         <v>15000</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="AF74" s="35"/>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75" s="173"/>
+      <c r="A75" s="158"/>
       <c r="B75" s="25">
         <v>14000</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="AF75" s="35"/>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
+      <c r="A76" s="158"/>
       <c r="B76" s="25">
         <v>13000</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="AF76" s="35"/>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="173"/>
+      <c r="A77" s="158"/>
       <c r="B77" s="25">
         <v>12000</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="AF77" s="35"/>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="173"/>
+      <c r="A78" s="158"/>
       <c r="B78" s="25">
         <v>11000</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="AF78" s="35"/>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="173"/>
+      <c r="A79" s="158"/>
       <c r="B79" s="25">
         <v>10000</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="AF79" s="35"/>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="173"/>
+      <c r="A80" s="158"/>
       <c r="B80" s="25">
         <v>9000</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="AF80" s="35"/>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="173"/>
+      <c r="A81" s="158"/>
       <c r="B81" s="25">
         <v>8000</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="AF81" s="35"/>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="173"/>
+      <c r="A82" s="158"/>
       <c r="B82" s="25">
         <v>7000</v>
       </c>
@@ -8522,7 +8522,7 @@
       <c r="AF82" s="35"/>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83" s="173"/>
+      <c r="A83" s="158"/>
       <c r="B83" s="25">
         <v>6000</v>
       </c>
@@ -8558,7 +8558,7 @@
       <c r="AF83" s="35"/>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="173"/>
+      <c r="A84" s="158"/>
       <c r="B84" s="25">
         <v>5000</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="AF84" s="35"/>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A85" s="173"/>
+      <c r="A85" s="158"/>
       <c r="B85" s="27">
         <v>4800</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="AF85" s="35"/>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A86" s="173"/>
+      <c r="A86" s="158"/>
       <c r="B86" s="25">
         <v>4000</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="AF86" s="35"/>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A87" s="173"/>
+      <c r="A87" s="158"/>
       <c r="B87" s="25">
         <v>3000</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="AF87" s="35"/>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" s="173"/>
+      <c r="A88" s="158"/>
       <c r="B88" s="25">
         <v>2000</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="AF88" s="35"/>
     </row>
     <row r="89" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="174"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="16">
         <v>1000</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="AF89" s="37"/>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A90" s="172" t="s">
+      <c r="A90" s="157" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="19">
@@ -8812,7 +8812,7 @@
       <c r="AF90" s="34"/>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" s="173"/>
+      <c r="A91" s="158"/>
       <c r="B91" s="25">
         <v>15000</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="AF91" s="35"/>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A92" s="173"/>
+      <c r="A92" s="158"/>
       <c r="B92" s="25">
         <v>14000</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="AF92" s="35"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A93" s="173"/>
+      <c r="A93" s="158"/>
       <c r="B93" s="25">
         <v>13000</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="AF93" s="35"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="173"/>
+      <c r="A94" s="158"/>
       <c r="B94" s="25">
         <v>12000</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="AF94" s="35"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" s="173"/>
+      <c r="A95" s="158"/>
       <c r="B95" s="25">
         <v>11000</v>
       </c>
@@ -8992,7 +8992,7 @@
       <c r="AF95" s="35"/>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" s="173"/>
+      <c r="A96" s="158"/>
       <c r="B96" s="25">
         <v>10000</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="AF96" s="35"/>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="173"/>
+      <c r="A97" s="158"/>
       <c r="B97" s="25">
         <v>9000</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="AF97" s="35"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" s="173"/>
+      <c r="A98" s="158"/>
       <c r="B98" s="25">
         <v>8000</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="AF98" s="35"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="173"/>
+      <c r="A99" s="158"/>
       <c r="B99" s="25">
         <v>7000</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="AF99" s="35"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="173"/>
+      <c r="A100" s="158"/>
       <c r="B100" s="25">
         <v>6000</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="AF100" s="35"/>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" s="173"/>
+      <c r="A101" s="158"/>
       <c r="B101" s="25">
         <v>5000</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="AF101" s="35"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="173"/>
+      <c r="A102" s="158"/>
       <c r="B102" s="27">
         <v>4800</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="AF102" s="35"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="173"/>
+      <c r="A103" s="158"/>
       <c r="B103" s="25">
         <v>4000</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="AF103" s="35"/>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="173"/>
+      <c r="A104" s="158"/>
       <c r="B104" s="25">
         <v>3000</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="AF104" s="35"/>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105" s="173"/>
+      <c r="A105" s="158"/>
       <c r="B105" s="25">
         <v>2000</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="AF105" s="35"/>
     </row>
     <row r="106" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="174"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="16">
         <v>1000</v>
       </c>
@@ -9890,11 +9890,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A38:A54"/>
-    <mergeCell ref="A56:A72"/>
-    <mergeCell ref="A73:A89"/>
-    <mergeCell ref="A90:A106"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="X1:AF1"/>
@@ -9902,6 +9897,11 @@
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A38:A54"/>
+    <mergeCell ref="A56:A72"/>
+    <mergeCell ref="A73:A89"/>
+    <mergeCell ref="A90:A106"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
